--- a/biology/Botanique/Eduard_Petzold/Eduard_Petzold.xlsx
+++ b/biology/Botanique/Eduard_Petzold/Eduard_Petzold.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carl Eduard Adolph Petzold, né le 14 janvier 1815 à Königswalde dans le Brandebourg oriental et mort en août 1891, est un paysagiste et créateur de parcs allemand.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Eduard Petzold est le fils d'un pasteur luthérien, Carl Friedrich Christian Petzold, qui emmène sa famille à Muskau où il est nommé en 1826 comme surintendant. Eduard poursuit ses études  entre 1828 et 1831 à l'école secondaire de Halle et ensuite devient apprenti-jardinier auprès du prince von Pückler-Muskau, créateur de jardins fameux de cette époque et qui exercera une grande influence sur sa vie. Petzold travaille à l'aménagement du parc de Muskau.
 Petzold crée son premier parc à Matzdorf en province de Silésie entre 1835 et 1838 et par la suite il adapte les conceptions de Pückler-Muskau dans un sens plus large. Il est nommé jardinier de la cour de Weimar en 1844, charge qu'il exerce jusqu'en 1852, année où il retourne à Muskau en tant qu'inspecteur du parc (Parkinspektor). Il est aussi entre 1852 et 1872 directeur des parcs des Pays-Bas, surtout auprès du prince Frédéric-Guillaume.
@@ -543,7 +557,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Petzold est le créateur de 174 parcs et jardins, surtout de châteaux et domaines seigneuriaux, en Allemagne, c'est-à-dire en Silésie, Thuringe, Saxe, Prusse-Occidentale et Brandebourg, mais aussi en Autriche-Hongrie, aux Pays-Bas, en Pologne, en Bulgarie, et dans l'Empire ottoman. Il publia aussi fréquemment des brochures et des articles spécialisés, ainsi que des ouvrages consacrés à son art, et des biographies de paysagistes, surtout celle du prince von Pückler-Muskau, en 1874.
 1844, parc du château d'Ettersburg
